--- a/data/raw data/HBEFA_emission_factors.xlsx
+++ b/data/raw data/HBEFA_emission_factors.xlsx
@@ -2084,7 +2084,7 @@
   <dimension ref="A1:AF204"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
